--- a/Flate_plate/Clamp.xlsx
+++ b/Flate_plate/Clamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\Flat_plate_stress\Flate_plate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E84E719-71BC-408B-BEDE-164A1E6F6E46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23376602-7487-4978-90B4-00BD0504D8CD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{A5EDCE5A-3E8B-4947-AC8D-9541D31F0969}"/>
   </bookViews>
@@ -31,24 +31,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>L1</t>
+    <t>Force</t>
   </si>
   <si>
-    <t>L2</t>
+    <t>B</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>Force</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -267,7 +261,7 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -315,14 +309,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -339,8 +333,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="2714625"/>
-          <a:ext cx="9525" cy="390525"/>
+          <a:off x="5657850" y="2905125"/>
+          <a:ext cx="9525" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -369,16 +363,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -393,8 +387,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7915275" y="1171575"/>
-          <a:ext cx="9525" cy="390525"/>
+          <a:off x="5686425" y="1181100"/>
+          <a:ext cx="0" cy="581025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -477,13 +471,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -829,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5ABDD99-FC5F-4680-8C6F-5970767D87CF}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,13 +837,15 @@
     <col min="10" max="10" width="3.28515625" customWidth="1"/>
     <col min="11" max="11" width="2" customWidth="1"/>
     <col min="12" max="12" width="3.140625" customWidth="1"/>
-    <col min="15" max="15" width="3.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -863,8 +859,9 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -878,8 +875,9 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -893,8 +891,9 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -904,12 +903,13 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="2"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -918,13 +918,14 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="2"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -933,15 +934,16 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2" t="s">
-        <v>2</v>
+      <c r="N8" s="8" t="s">
+        <v>3</v>
       </c>
+      <c r="O8" s="9"/>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -950,13 +952,14 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="2"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="10"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -966,12 +969,13 @@
       <c r="L10" s="8"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="2"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="8"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -982,11 +986,12 @@
       <c r="M11" s="7"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="2"/>
+      <c r="P11" s="8"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
@@ -995,19 +1000,20 @@
       <c r="I12" s="2"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="7"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="2" t="s">
-        <v>5</v>
+      <c r="O12" s="8"/>
+      <c r="P12" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1018,11 +1024,12 @@
       <c r="M13" s="7"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
-      <c r="P13" s="2"/>
+      <c r="P13" s="8"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1033,11 +1040,12 @@
       <c r="M14" s="7"/>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
-      <c r="P14" s="2"/>
+      <c r="P14" s="8"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1047,12 +1055,13 @@
       <c r="L15" s="8"/>
       <c r="M15" s="11"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="8"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1061,13 +1070,14 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="2"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1076,15 +1086,16 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2" t="s">
-        <v>1</v>
+      <c r="N17" s="8" t="s">
+        <v>3</v>
       </c>
+      <c r="O17" s="9"/>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-    </row>
-    <row r="18" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="6:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1093,13 +1104,14 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="2"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="10"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-    </row>
-    <row r="19" spans="6:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="6:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1113,8 +1125,9 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="6:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="6:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1123,15 +1136,16 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="N20" s="2"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-    </row>
-    <row r="21" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1145,8 +1159,9 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1160,8 +1175,9 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-    </row>
-    <row r="23" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1175,8 +1191,9 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1190,8 +1207,9 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-    </row>
-    <row r="25" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1205,6 +1223,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
